--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -66,11 +66,47 @@
   <si>
     <t>《如何管理好每一分钱》</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>2017-4-25</t>
+  </si>
+  <si>
+    <t>资产收益率</t>
+  </si>
+  <si>
+    <t>1.节省时间或者使用节省人力的器械电器，去做有意义的事情（比如理财，锻炼身体），也是节省成本的方式。
+2.资产收益率，利润与资产的比率，投资人会看重一个公司的资产收益率。</t>
+  </si>
+  <si>
+    <t>1.节省时间或者使用节省人力的器械电器，去做有意义的事情（比如理财，锻炼身体），也是节省成本的方式。
+2.资产收益率，利润与资产的比率，投资人会看重一个公司的资产收益率。
+3.出售房产偿还购买房产的长期借债，优化资产收益率
+4.对于家庭理财，可以提高资产的流动性，如出售房屋，不买车，打车。</t>
+  </si>
+  <si>
+    <t>1.节省时间或者使用节省人力的器械电器，去做有意义的事情（比如理财，锻炼身体），也是节省成本的方式。
+2.资产收益率，利润与资产的比率，投资人会看重一个公司的资产收益率。
+3.出售房产偿还购买房产的长期借债，优化资产收益率
+4.对于家庭理财，可以提高资产的流动性，如出售房屋，不买车，打车。
+5.企业重组：财务重组（压缩负债），经营重组（降低成本，提升利润），投资重组（着眼长期收益，重视研发）。
+6.家庭里减少的支出=家庭的利润=储蓄额，</t>
+  </si>
+  <si>
+    <t>1.节省时间或者使用节省人力的器械电器，去做有意义的事情（比如理财，锻炼身体），也是节省成本的方式。
+2.资产收益率，利润与资产的比率，投资人会看重一个公司的资产收益率。
+3.出售房产偿还购买房产的长期借债，优化资产收益率
+4.对于家庭理财，可以提高资产的流动性，如出售房屋，不买车，打车。
+5.企业重组：财务重组（压缩负债），经营重组（降低成本，提升利润），投资重组（着眼长期收益，重视研发）。
+6.收入与支出配对思考，家庭里减少的支出=家庭的利润=储蓄额</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -176,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,7 +267,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
@@ -292,21 +334,27 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row ht="35.25" customHeight="1" r="6">
-      <c r="C6" s="11"/>
+    <row ht="143.55" customHeight="1" r="6">
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
-    <row ht="35.25" customHeight="1" r="7">
-      <c r="C7" s="11"/>
+    <row ht="0" customHeight="1" hidden="1" r="7">
       <c r="E7" s="5"/>
     </row>
     <row ht="32.25" customHeight="1" r="8">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row ht="26.25" customHeight="1" r="9">
-      <c r="C9" s="11"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="10">
@@ -7214,9 +7262,8 @@
       <c r="E1000" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B5"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B10:B12"/>
@@ -7224,6 +7271,9 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D13:D22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A3:B9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7232,6 +7282,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>

--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -101,6 +101,15 @@
 4.对于家庭理财，可以提高资产的流动性，如出售房屋，不买车，打车。
 5.企业重组：财务重组（压缩负债），经营重组（降低成本，提升利润），投资重组（着眼长期收益，重视研发）。
 6.收入与支出配对思考，家庭里减少的支出=家庭的利润=储蓄额</t>
+  </si>
+  <si>
+    <t>2017-4-26</t>
+  </si>
+  <si>
+    <t>1.人们购物和参考点效应有关，我们需要把注意力放在商品商品或者租房价格的绝对值上。
+2.在资产负债表里加入一年的节约目标。
+3.确定节约总目标以后，需要注意平时看不见的负债，即因为生活习惯产生的支出，日积月累会影响节约目标实现，减少外出吃饭喝酒频率。
+4.学会削减固定费用，减少支出。</t>
   </si>
 </sst>
 </file>
@@ -267,7 +276,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -358,19 +370,20 @@
       <c r="E9" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="10">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="11">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="9"/>
       <c r="E11" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="12">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="E12" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="13">
@@ -7262,18 +7275,19 @@
       <c r="E1000" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B22"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D13:D22"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A3:B9"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7282,6 +7296,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>

--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -111,6 +111,15 @@
 3.确定节约总目标以后，需要注意平时看不见的负债，即因为生活习惯产生的支出，日积月累会影响节约目标实现，减少外出吃饭喝酒频率。
 4.学会削减固定费用，减少支出。</t>
   </si>
+  <si>
+    <t>1.机会成本：为了做某件事，失去本该获得的利润或者好处，并且转化成成本，做事需要考虑机会成本。
+2.沉没成本：做一件事必须付出的成本。</t>
+  </si>
+  <si>
+    <t>1.机会成本：为了做某事而失去应得到的利润，并且转化成成本
+2.沉没成本：做某事必须付出的成本。
+3.锁定一个兴趣，避免不必要的开支，省钱，对自己来说就是健身吧，或者把兴趣变成工作。</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,7 +288,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -387,45 +402,57 @@
       <c r="E12" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="13">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="14">
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="15">
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="16">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="17">
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="18">
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="19">
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="20">
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="21">
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="22">
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="23">
@@ -7279,15 +7306,15 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B13:B22"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D13:D22"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A3:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A3:B22"/>
+    <mergeCell ref="C13:C22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7296,6 +7323,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>

--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -119,6 +119,16 @@
     <t>1.机会成本：为了做某事而失去应得到的利润，并且转化成成本
 2.沉没成本：做某事必须付出的成本。
 3.锁定一个兴趣，避免不必要的开支，省钱，对自己来说就是健身吧，或者把兴趣变成工作。</t>
+  </si>
+  <si>
+    <t>2017-5-2</t>
+  </si>
+  <si>
+    <t>1.保管好购物小票，主要是为了意识购物行为，现实中尽量以支付宝和微信支付做结算
+2.做好记录，把握好商品价值，培养自己的会计思维。
+3.复式记账法：意识到钱换取了什么东西，而不是不明不白花掉，不知道花在哪。
+4.借方：自己的钱，贷方：别人的钱
+5.购物清单记录后，分清哪些是必需品哪些是非必需品，并且日后反思</t>
   </si>
 </sst>
 </file>
@@ -288,7 +298,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D23" sqref="D23"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -362,9 +375,6 @@
       <c r="E5" s="5"/>
     </row>
     <row ht="143.55" customHeight="1" r="6">
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="5"/>
     </row>
     <row ht="0" customHeight="1" hidden="1" r="7">
@@ -456,10 +466,12 @@
       <c r="E22" s="5"/>
     </row>
     <row ht="13.5" customHeight="1" r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="12"/>
     </row>
     <row ht="13.5" customHeight="1" r="24">
@@ -7309,12 +7321,12 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D13:D22"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A3:B22"/>
     <mergeCell ref="C13:C22"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A3:B23"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7323,6 +7335,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>

--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -130,6 +130,67 @@
 4.借方：自己的钱，贷方：别人的钱
 5.购物清单记录后，分清哪些是必需品哪些是非必需品，并且日后反思</t>
   </si>
+  <si>
+    <t>2017-5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.买东西优先到银行卡APP上的自有商店去看下有没有合适的商品。
+3.某一类消费可以使用专门的信用卡来管理，比如买书就特定用招行，日常开支和非日常开支（旅游等）放在。
+4.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.购买商品优先去银行APP的自有商店。
+3.某一类开支由一张银行卡专门负责，比如买书用招行。日常开支和非日常开支放到
+一张卡上会失去督促自己节省开支的动力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.购买商品优先去银行APP的自有商店。
+3.某一类开支由一张银行卡专门负责，比如买书用招行。日常开支和非日常开支放到
+一张卡上会失去督促自己节省开支的动力。
+4.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.购买商品优先去银行APP的自有商店。
+3.某一类开支由一张银行卡专门负责，比如买书用招行。日常开支和非日常开支放到
+一张卡上会失去督促自己节省开支的动力。
+4.找管理家庭账本的公司对家庭的消费做梳理。
+5.钱优先用到自己身上（预扣款），再还信用卡，这是能否成为有钱人的分水岭
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.购买商品优先去银行APP的自有商店。
+3.某一类开支由一张银行卡专门负责，比如买书用招行。日常开支和非日常开支放到
+一张卡上会失去督促自己节省开支的动力。
+4.找管理家庭账本的公司对家庭的消费做梳理。
+5.钱优先用到自己身上（预扣款），再还信用卡，这是能否成为有钱人的分水岭。
+6.三卡原则：1.一张卡用于储蓄 2.一张卡用于开销 3.一张卡用于投资
+7.风险和回报寻找风险和回报相匹配，诚信且公平的投资项目。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提取生活费，以周为周期，支取本周的开支。
+2.购买商品优先去银行APP的自有商店。
+3.某一类开支由一张银行卡专门负责，比如买书用招行。日常开支和非日常开支放到
+一张卡上会失去督促自己节省开支的动力。
+4.找管理家庭账本的公司对家庭的消费做梳理。
+5.钱优先用到自己身上（预扣款），再还信用卡，这是能否成为有钱人的分水岭。
+6.三卡原则：1.一张卡用于储蓄 2.一张卡用于开销 3.一张卡用于投资
+7.风险和回报寻找风险和回报相匹配，诚信且公平的投资项目。
+8.风险和回报会有一个相应的平衡，这是市场的调节机制。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="SimSun"/>
       <color rgb="FF000000"/>
@@ -164,6 +225,11 @@
     <font>
       <name val="SimSun"/>
       <color rgb="FF008080"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="SimSun"/>
+      <color rgb="FF008000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -240,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +344,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,7 +367,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -356,7 +428,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row ht="82.5" customHeight="1" r="4">
+    <row ht="109.9" customHeight="1" r="4">
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
@@ -377,7 +449,7 @@
     <row ht="143.55" customHeight="1" r="6">
       <c r="E6" s="5"/>
     </row>
-    <row ht="0" customHeight="1" hidden="1" r="7">
+    <row ht="51.75" customHeight="1" r="7">
       <c r="E7" s="5"/>
     </row>
     <row ht="32.25" customHeight="1" r="8">
@@ -389,7 +461,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row ht="26.25" customHeight="1" r="9">
+    <row ht="62.55" customHeight="1" r="9">
       <c r="C9" s="0"/>
       <c r="D9" s="10"/>
       <c r="E9" s="5"/>
@@ -407,7 +479,7 @@
       <c r="C11" s="9"/>
       <c r="E11" s="5"/>
     </row>
-    <row ht="13.5" customHeight="1" r="12">
+    <row ht="86.15" customHeight="1" r="12">
       <c r="C12" s="9"/>
       <c r="E12" s="5"/>
     </row>
@@ -465,7 +537,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="5"/>
     </row>
-    <row ht="13.5" customHeight="1" r="23">
+    <row ht="84.05" customHeight="1" r="23">
       <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
@@ -474,11 +546,13 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row ht="13.5" customHeight="1" r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row ht="129.4" customHeight="1" r="24">
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="11"/>
     </row>
     <row ht="13.5" customHeight="1" r="25">
@@ -7326,7 +7400,7 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A3:B23"/>
+    <mergeCell ref="A3:B24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7335,6 +7409,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>

--- a/读书笔记.xlsx
+++ b/读书笔记.xlsx
@@ -191,6 +191,35 @@
 8.风险和回报会有一个相应的平衡，这是市场的调节机制。
 </t>
   </si>
+  <si>
+    <t>2017-5-28</t>
+  </si>
+  <si>
+    <t>1.使用复利进行投资,利用收益进行再投资,即使利率偏低,多年运作,收益也很可观,让时间帮你赚钱
+2.设立目标金额和投资期限,斟酌好风险和收益的冲突,了解自己为了实现目标可以付出多大风险.
+3.寻找复利计算工具,来计算实现自己的财务需要多大投入.
+4.工资挣到的收益留存下来,做投资
+5.计算自我投资回报率(机会成本计算)</t>
+  </si>
+  <si>
+    <t>1.使用复利进行投资,利用收益进行再投资,即使利率偏低,多年运作,收益也很可观,让时间帮你赚钱
+2.设立目标金额和投资期限,斟酌好风险和收益的冲突,了解自己为了实现目标可以付出多大风险.
+3.寻找复利计算工具,来计算实现自己的财务需要多大投入.
+4.工资挣到的收益留存下来,做投资
+5.计算自我投资回报率(机会成本计算)
+6.粗略根据银行储蓄利率计算未来回报对应的现在价值,在做自我投资的时候进行衡量.
+7.防范大投资,注重小积累,大投资带来的收益,有时候并不一定比小积累产生的收益多</t>
+  </si>
+  <si>
+    <t>1.使用复利进行投资,利用收益进行再投资,即使利率偏低,多年运作,收益也很可观,让时间帮你赚钱
+2.设立目标金额和投资期限,斟酌好风险和收益的冲突,了解自己为了实现目标可以付出多大风险.
+3.寻找复利计算工具,来计算实现自己的财务需要多大投入.
+4.工资挣到的收益留存下来,做投资
+5.计算自我投资回报率(机会成本计算)
+6.粗略根据银行储蓄利率计算未来回报对应的现在价值,在做自我投资的时候进行衡量.
+7.防范大投资,注重小积累,大投资带来的收益,有时候并不一定比小积累产生的收益多
+8.要成为有钱人,需要制定好成功的时间轴.放长线钓大鱼,就不要付出太高的风险,而短期要获取高收益,就必须寻找高风险高回报的项目</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +262,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +285,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF008080"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -306,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +381,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C25" sqref="C25"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -555,11 +598,13 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row ht="13.5" customHeight="1" r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row ht="63.65" customHeight="1" r="25">
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
     <row ht="13.5" customHeight="1" r="26">
@@ -7400,7 +7445,7 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A3:B24"/>
+    <mergeCell ref="A3:B25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7409,6 +7454,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
     <sheetView topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
